--- a/Excel/Dadda_tree_purple.xlsx
+++ b/Excel/Dadda_tree_purple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianl\Documents\GitHub\Dadda_tree\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4AE58F-AFA1-4DDE-9F40-D964405AC6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B941D6-C62F-4FCE-8D84-C88B9F9B083F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10251,8 +10251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EE20D3-9796-4D3B-9CD2-E37D73BC34D0}">
   <dimension ref="A2:BR116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BE118" sqref="BE118"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13521,13 +13521,13 @@
         <v>23</v>
       </c>
       <c r="AH25" s="81">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI25" s="81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ25" s="81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK25" s="81">
         <v>3</v>
